--- a/Feature-Analysis/Resize Feature/s_16_right.xlsx
+++ b/Feature-Analysis/Resize Feature/s_16_right.xlsx
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>737791.45590277773</v>
+        <v>738157.45590277773</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>737791.4565162037</v>
+        <v>738157.4565162037</v>
       </c>
       <c r="C3" s="0">
         <v>53.000004217028618</v>
@@ -3077,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0">
-        <v>737791.4566898148</v>
+        <v>738157.4566898148</v>
       </c>
       <c r="C4" s="0">
         <v>68.000003322958946</v>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="0">
-        <v>737791.45710648154</v>
+        <v>738157.45710648154</v>
       </c>
       <c r="C5" s="0">
         <v>104.00000922381878</v>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0">
-        <v>737791.45751157403</v>
+        <v>738157.45751157403</v>
       </c>
       <c r="C6" s="0">
         <v>139.00000043213367</v>
@@ -5162,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0">
-        <v>737791.45778935181</v>
+        <v>738157.45778935181</v>
       </c>
       <c r="C7" s="0">
         <v>163.00000101327896</v>
@@ -5857,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0">
-        <v>737791.45819444442</v>
+        <v>738157.45819444442</v>
       </c>
       <c r="C8" s="0">
         <v>198.00000227987766</v>
@@ -6552,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0">
-        <v>737791.45859953703</v>
+        <v>738157.45859953703</v>
       </c>
       <c r="C9" s="0">
         <v>233.00000354647636</v>
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0">
-        <v>737791.45899305551</v>
+        <v>738157.45899305551</v>
       </c>
       <c r="C10" s="0">
         <v>267.00000017881393</v>
@@ -7942,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="0">
-        <v>737791.45928240742</v>
+        <v>738157.45928240742</v>
       </c>
       <c r="C11" s="0">
         <v>292.00000539422035</v>
@@ -8637,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0">
-        <v>737791.45968750003</v>
+        <v>738157.45968750003</v>
       </c>
       <c r="C12" s="0">
         <v>327.00000666081905</v>
@@ -9332,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="0">
-        <v>737791.46009259264</v>
+        <v>738157.46009259264</v>
       </c>
       <c r="C13" s="0">
         <v>362.00000792741776</v>
@@ -10027,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="0">
-        <v>737791.46050925925</v>
+        <v>738157.46050925925</v>
       </c>
       <c r="C14" s="0">
         <v>398.00000376999378</v>
@@ -10722,7 +10722,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="0">
-        <v>737791.46077546291</v>
+        <v>738157.46077546291</v>
       </c>
       <c r="C15" s="0">
         <v>420.99999971687794</v>
@@ -11417,7 +11417,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0">
-        <v>737791.46119212965</v>
+        <v>738157.46119212965</v>
       </c>
       <c r="C16" s="0">
         <v>457.00000561773777</v>
@@ -12112,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0">
-        <v>737791.46156249999</v>
+        <v>738157.46156249999</v>
       </c>
       <c r="C17" s="0">
         <v>489.00000303983688</v>
@@ -12807,7 +12807,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="0">
-        <v>737791.46197916672</v>
+        <v>738157.46197916672</v>
       </c>
       <c r="C18" s="0">
         <v>525.00000894069672</v>
@@ -13502,7 +13502,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="0">
-        <v>737791.46239583334</v>
+        <v>738157.46239583334</v>
       </c>
       <c r="C19" s="0">
         <v>561.00000478327274</v>
@@ -14197,7 +14197,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="0">
-        <v>737791.46265046299</v>
+        <v>738157.46265046299</v>
       </c>
       <c r="C20" s="0">
         <v>583.00000615417957</v>
@@ -14892,7 +14892,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="0">
-        <v>737791.4630671296</v>
+        <v>738157.4630671296</v>
       </c>
       <c r="C21" s="0">
         <v>619.0000019967556</v>
@@ -15587,7 +15587,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="0">
-        <v>737791.46348379634</v>
+        <v>738157.46348379634</v>
       </c>
       <c r="C22" s="0">
         <v>655.00000789761543</v>
@@ -16282,7 +16282,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="0">
-        <v>737791.46388888895</v>
+        <v>738157.46388888895</v>
       </c>
       <c r="C23" s="0">
         <v>690.00000916421413</v>
@@ -16977,7 +16977,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="0">
-        <v>737791.46417824074</v>
+        <v>738157.46417824074</v>
       </c>
       <c r="C24" s="0">
         <v>715.00000432133675</v>
@@ -17672,7 +17672,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="0">
-        <v>737791.46474537032</v>
+        <v>738157.46474537032</v>
       </c>
       <c r="C25" s="0">
         <v>764.00000005960464</v>
@@ -18367,7 +18367,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="0">
-        <v>737791.46488425927</v>
+        <v>738157.46488425927</v>
       </c>
       <c r="C26" s="0">
         <v>776.00000537931919</v>
@@ -19062,7 +19062,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="0">
-        <v>737791.46532407403</v>
+        <v>738157.46532407403</v>
       </c>
       <c r="C27" s="0">
         <v>814.00000043213367</v>
@@ -19757,7 +19757,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="0">
-        <v>737791.46574074076</v>
+        <v>738157.46574074076</v>
       </c>
       <c r="C28" s="0">
         <v>850.00000633299351</v>
@@ -20452,7 +20452,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="0">
-        <v>737791.4660532407</v>
+        <v>738157.4660532407</v>
       </c>
       <c r="C29" s="0">
         <v>877.00000070035458</v>
@@ -21147,7 +21147,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="0">
-        <v>737791.46645833331</v>
+        <v>738157.46645833331</v>
       </c>
       <c r="C30" s="0">
         <v>912.00000196695328</v>
@@ -21842,7 +21842,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="0">
-        <v>737791.46688657405</v>
+        <v>738157.46688657405</v>
       </c>
       <c r="C31" s="0">
         <v>949.00000244379044</v>
@@ -22537,7 +22537,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="0">
-        <v>737791.46716435184</v>
+        <v>738157.46716435184</v>
       </c>
       <c r="C32" s="0">
         <v>973.00000302493572</v>
@@ -23232,7 +23232,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="0">
-        <v>737791.46758101857</v>
+        <v>738157.46758101857</v>
       </c>
       <c r="C33" s="0">
         <v>1009.0000089257956</v>
@@ -23927,7 +23927,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="0">
-        <v>737791.46800925932</v>
+        <v>738157.46800925932</v>
       </c>
       <c r="C34" s="0">
         <v>1046.0000094026327</v>
@@ -24622,7 +24622,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="0">
-        <v>737791.46828703699</v>
+        <v>738157.46828703699</v>
       </c>
       <c r="C35" s="0">
         <v>1069.9999999254942</v>
@@ -25317,7 +25317,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="0">
-        <v>737791.46870370372</v>
+        <v>738157.46870370372</v>
       </c>
       <c r="C36" s="0">
         <v>1106.000005826354</v>
@@ -26012,7 +26012,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="0">
-        <v>737791.46912037034</v>
+        <v>738157.46912037034</v>
       </c>
       <c r="C37" s="0">
         <v>1142.0000016689301</v>
@@ -26707,7 +26707,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="0">
-        <v>737791.46938657411</v>
+        <v>738157.46938657411</v>
       </c>
       <c r="C38" s="0">
         <v>1165.000007674098</v>
@@ -27402,7 +27402,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="0">
-        <v>737791.46979166672</v>
+        <v>738157.46979166672</v>
       </c>
       <c r="C39" s="0">
         <v>1200.0000089406967</v>
@@ -28097,7 +28097,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="0">
-        <v>737791.47019675921</v>
+        <v>738157.47019675921</v>
       </c>
       <c r="C40" s="0">
         <v>1235.0000001490116</v>
